--- a/documentation/biomedical_llm_state_of_art.xlsx
+++ b/documentation/biomedical_llm_state_of_art.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RESEARCH\Hackaton_NLP_2024\SOURCE\SpanishMedicaLLM\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C56FB1-0DD6-459E-BA94-BEAE9A1A47C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7319545-9B10-49C3-BD73-281DAE023888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biomedical_llm_state_of_art" sheetId="2" r:id="rId1"/>
-    <sheet name="BioMistral_vs_StateOfArt" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="BioMistral_vs_StateOfArt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -281,6 +282,15 @@
   </si>
   <si>
     <t>https://github.com/PharMolix/OpenBioMed</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>Público</t>
   </si>
 </sst>
 </file>
@@ -947,10 +957,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C60D55-8258-4EEE-94B1-45E96D3BB889}">
+  <dimension ref="D6:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967F52EC-8C23-43FF-91B4-740796B2A0AB}">
   <dimension ref="B4:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
